--- a/data/shared_lost_genes.xlsx
+++ b/data/shared_lost_genes.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ventricular cardiac muscle cell action potential</t>
+          <t>positive regulation of potassium ion transmembrane transporter activity</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>positive regulation of potassium ion transmembrane transporter activity</t>
+          <t>positive regulation of cation channel activity</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>positive regulation of cation channel activity</t>
+          <t>ventricular cardiac muscle cell action potential</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>regulation of atrial cardiac muscle cell action potential</t>
+          <t>membrane depolarization during SA node cell action potential</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>membrane depolarization during SA node cell action potential</t>
+          <t>regulation of atrial cardiac muscle cell action potential</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>regulation of SA node cell action potential</t>
+          <t>regulation of heart rate by cardiac conduction</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>regulation of heart rate by cardiac conduction</t>
+          <t>regulation of SA node cell action potential</t>
         </is>
       </c>
     </row>
@@ -615,7 +615,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>negative regulation of vernalization response</t>
+          <t>regulation of membrane permeability</t>
         </is>
       </c>
     </row>
@@ -625,7 +625,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>response to herbivore</t>
+          <t>negative regulation of vernalization response</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>response to molecule of fungal origin</t>
+          <t>response to herbivore</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>protein localization to cell surface</t>
+          <t>response to molecule of fungal origin</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>regulation of membrane permeability</t>
+          <t>protein localization to cell surface</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>photoreceptor cell outer segment organization</t>
+          <t>retinal rod cell development</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>retinal rod cell development</t>
+          <t>photoreceptor cell outer segment organization</t>
         </is>
       </c>
     </row>

--- a/data/shared_lost_genes.xlsx
+++ b/data/shared_lost_genes.xlsx
@@ -445,7 +445,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>response to insect</t>
+          <t>regulation of cardiac muscle contraction by regulation of the release of sequestered calcium ion</t>
         </is>
       </c>
     </row>
@@ -455,7 +455,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>regulation of cardiac muscle contraction by regulation of the release of sequestered calcium ion</t>
+          <t>positive regulation of calcium ion transmembrane transporter activity</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>positive regulation of calcium ion transmembrane transporter activity</t>
+          <t>positive regulation of potassium ion transmembrane transporter activity</t>
         </is>
       </c>
     </row>
@@ -475,7 +475,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>positive regulation of potassium ion transmembrane transporter activity</t>
+          <t>positive regulation of cation channel activity</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>positive regulation of cation channel activity</t>
+          <t>ventricular cardiac muscle cell action potential</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ventricular cardiac muscle cell action potential</t>
+          <t>membrane depolarization during SA node cell action potential</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>membrane depolarization during SA node cell action potential</t>
+          <t>regulation of atrial cardiac muscle cell action potential</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>regulation of atrial cardiac muscle cell action potential</t>
+          <t>regulation of heart rate by cardiac conduction</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>regulation of heart rate by cardiac conduction</t>
+          <t>regulation of SA node cell action potential</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>regulation of SA node cell action potential</t>
+          <t>response to insect</t>
         </is>
       </c>
     </row>
@@ -575,7 +575,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cellular response to antibiotic</t>
+          <t>cell-cell signaling involved in cell fate commitment</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>glucosinolate biosynthetic process</t>
+          <t>cellular response to antibiotic</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>cyanidin 3-O-glucoside metabolic process</t>
+          <t>glucosinolate biosynthetic process</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>cell-cell signaling involved in cell fate commitment</t>
+          <t>cyanidin 3-O-glucoside metabolic process</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>response to herbivore</t>
+          <t>negative regulation of L-ascorbic acid biosynthetic process</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>response to molecule of fungal origin</t>
+          <t>cellular response to xenobiotic stimulus</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>protein localization to cell surface</t>
+          <t>response to herbivore</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>regulation of signaling receptor activity</t>
+          <t>response to molecule of fungal origin</t>
         </is>
       </c>
     </row>
@@ -675,7 +675,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>regulation of RNA binding transcription factor activity</t>
+          <t>protein localization to cell surface</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>circadian regulation of translation</t>
+          <t>regulation of signaling receptor activity</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>defense response to virus</t>
+          <t>regulation of RNA binding transcription factor activity</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>negative regulation of L-ascorbic acid biosynthetic process</t>
+          <t>circadian regulation of translation</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>protein localization to M-band</t>
+          <t>induced systemic resistance</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>protein localization to endoplasmic reticulum</t>
+          <t>programmed cell death involved in cell development</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>induced systemic resistance</t>
+          <t>defense response to virus</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>programmed cell death involved in cell development</t>
+          <t>T-tubule organization</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>T-tubule organization</t>
+          <t>protein localization to M-band</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>protein exit from endoplasmic reticulum</t>
+          <t>protein localization to endoplasmic reticulum</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>RNA modification</t>
+          <t>protein exit from endoplasmic reticulum</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>cellular response to drug</t>
+          <t>RNA modification</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>response to nitric oxide</t>
+          <t>thalianol metabolic process</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>thalianol metabolic process</t>
+          <t>auxin catabolic process</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>auxin catabolic process</t>
+          <t>cellular response to acid chemical</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>response to 1-aminocyclopropane-1-carboxylic acid</t>
+          <t>plant-type cell wall organization</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>regulation of antifungal innate immune response</t>
+          <t>retina layer formation</t>
         </is>
       </c>
     </row>
@@ -975,7 +975,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>cellular response to acid chemical</t>
+          <t>negative regulation of auxin mediated signaling pathway</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>plant-type cell wall organization</t>
+          <t>sesquiterpenoid biosynthetic process</t>
         </is>
       </c>
     </row>
@@ -995,7 +995,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>sesquiterpenoid biosynthetic process</t>
+          <t>farnesyl diphosphate catabolic process</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>farnesyl diphosphate catabolic process</t>
+          <t>(-)-pinoresinol biosynthetic process</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>negative regulation of auxin mediated signaling pathway</t>
+          <t>meristem determinacy</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>(-)-pinoresinol biosynthetic process</t>
+          <t>response to nitric oxide</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>meristem determinacy</t>
+          <t>arsenite transport</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>arsenite transport</t>
+          <t>regulation of antifungal innate immune response</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>farnesyl diphosphate metabolic process</t>
+          <t>response to 1-aminocyclopropane-1-carboxylic acid</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>positive regulation of seed germination</t>
+          <t>farnesyl diphosphate metabolic process</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>cation transport</t>
+          <t>retinal cone cell development</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>inorganic ion transmembrane transport</t>
+          <t>photoreceptor cell outer segment organization</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>tryptophan catabolic process</t>
+          <t>retinal rod cell development</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>indoleacetic acid biosynthetic process</t>
+          <t>positive regulation of seed germination</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>retinal cone cell development</t>
+          <t>cation transport</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>retina layer formation</t>
+          <t>inorganic ion transmembrane transport</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>retinal rod cell development</t>
+          <t>tryptophan catabolic process</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>photoreceptor cell outer segment organization</t>
+          <t>indoleacetic acid biosynthetic process</t>
         </is>
       </c>
     </row>
